--- a/src/test/resources/DIDS_XMLExample_01.xlsx
+++ b/src/test/resources/DIDS_XMLExample_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdelamo/Developer/oci/MetadataSentinel/src/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdelamo/Developer/oci/MetadataSentinel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C0E87E-8256-D84D-B643-23B8B592F3E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29608D78-7893-8642-A452-052856EA5032}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52860" yWindow="2480" windowWidth="43040" windowHeight="22560" xr2:uid="{0036BA73-5F1B-654A-867F-E87ADCB79888}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>NHSNumber</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -491,209 +494,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D470EB-0ADB-AD4F-B094-345AE165A408}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1234567890</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>40796</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>71651007</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>40825</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1234567890</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>40796</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>31695</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
